--- a/Nowcasts/2025Q4/tables/nowcasts_2025Q4_Nr8_Np3_Nj0.xlsx
+++ b/Nowcasts/2025Q4/tables/nowcasts_2025Q4_Nr8_Np3_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Row</t>
   </si>
@@ -109,6 +109,57 @@
   </si>
   <si>
     <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
+  </si>
+  <si>
+    <t>2025-10-30</t>
+  </si>
+  <si>
+    <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>2025-11-30</t>
+  </si>
+  <si>
+    <t>2025-12-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -189,58 +240,58 @@
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
     <col min="2" max="2" width="12.64453125" customWidth="true"/>
-    <col min="3" max="3" width="13.64453125" customWidth="true"/>
-    <col min="4" max="4" width="13.64453125" customWidth="true"/>
+    <col min="3" max="3" width="13.24609375" customWidth="true"/>
+    <col min="4" max="4" width="14.24609375" customWidth="true"/>
     <col min="5" max="5" width="15.24609375" customWidth="true"/>
-    <col min="6" max="6" width="16.24609375" customWidth="true"/>
+    <col min="6" max="6" width="15.24609375" customWidth="true"/>
     <col min="7" max="7" width="15.24609375" customWidth="true"/>
-    <col min="8" max="8" width="16.24609375" customWidth="true"/>
-    <col min="9" max="9" width="15.24609375" customWidth="true"/>
-    <col min="10" max="10" width="15.64453125" customWidth="true"/>
-    <col min="11" max="11" width="16.24609375" customWidth="true"/>
+    <col min="8" max="8" width="15.77734375" customWidth="true"/>
+    <col min="9" max="9" width="14.64453125" customWidth="true"/>
+    <col min="10" max="10" width="15.046875" customWidth="true"/>
+    <col min="11" max="11" width="15.64453125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B2" s="0">
-        <v>0.16381505499368396</v>
+        <v>0.18892600685601138</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -272,177 +323,177 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B3" s="0">
-        <v>0.20563420072932787</v>
+        <v>0.45291165272202805</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0.037905555869177064</v>
+        <v>0.13829651932384129</v>
       </c>
       <c r="E3" s="0">
-        <v>0.00067875996000091516</v>
+        <v>0.0011369963633350018</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.00090624446136300656</v>
+        <v>0.12333627861278716</v>
       </c>
       <c r="G3" s="0">
-        <v>0.0014396610891383242</v>
+        <v>-0.0024652510557010457</v>
       </c>
       <c r="H3" s="0">
-        <v>-0.00038706265037340945</v>
+        <v>0.0011206272720477681</v>
       </c>
       <c r="I3" s="0">
-        <v>0.0033963060019942559</v>
+        <v>-0.028714624811588225</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>-0.00030783007293025411</v>
+        <v>0.031275100161294728</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B4" s="0">
-        <v>0.40197705500384801</v>
+        <v>0.61728705530925865</v>
       </c>
       <c r="C4" s="0">
-        <v>0.19134378149499012</v>
+        <v>0.12294485256786067</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>-0.0022907083328698153</v>
+        <v>-0.047343223770726521</v>
       </c>
       <c r="F4" s="0">
-        <v>0.00013018668830066157</v>
+        <v>-0.00024093636203975324</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>0.00014340964487866514</v>
+        <v>-6.5340228160170276e-05</v>
       </c>
       <c r="I4" s="0">
-        <v>0.0064410020164177425</v>
+        <v>0.025598054105059762</v>
       </c>
       <c r="J4" s="0">
-        <v>0.00074365400920916463</v>
+        <v>0.064908340510103399</v>
       </c>
       <c r="K4" s="0">
-        <v>-0.00016847124640639866</v>
+        <v>-0.001426344234866761</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B5" s="0">
-        <v>0.38462934031836354</v>
+        <v>0.53837992130432122</v>
       </c>
       <c r="C5" s="0">
         <v>0</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.14380284869788937</v>
+        <v>-0.0093189602803609925</v>
       </c>
       <c r="E5" s="0">
-        <v>0.0044329738039172728</v>
+        <v>0.020906339402161075</v>
       </c>
       <c r="F5" s="0">
-        <v>0.055596283986066267</v>
+        <v>-0.091244850687381696</v>
       </c>
       <c r="G5" s="0">
-        <v>0.013635668993105973</v>
+        <v>0.029025720103740858</v>
       </c>
       <c r="H5" s="0">
-        <v>0.0071840176785212938</v>
+        <v>0.0014508823808191647</v>
       </c>
       <c r="I5" s="0">
-        <v>0.036579311304398052</v>
+        <v>-0.022241870972300688</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>0.0090268782463960306</v>
+        <v>-0.0074843939516151536</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B6" s="0">
-        <v>0.18479087220046492</v>
+        <v>0.36649643967038759</v>
       </c>
       <c r="C6" s="0">
-        <v>-0.22549844235028008</v>
+        <v>-0.1501369838324948</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>0.0079784231092262653</v>
+        <v>-0.0050044285845486655</v>
       </c>
       <c r="F6" s="0">
-        <v>0.0043213987995878505</v>
+        <v>-0.0045356642192531651</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>0.0081762949235037307</v>
+        <v>-0.01457931052349304</v>
       </c>
       <c r="I6" s="0">
-        <v>0.007959778894036644</v>
+        <v>0.0020268477646880586</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>-0.0027759214939730437</v>
+        <v>0.00034605776116802822</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B7" s="0">
-        <v>0.12667750445140313</v>
+        <v>-0.035896633395627653</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>0.1397186966522834</v>
+        <v>0.055523783181834645</v>
       </c>
       <c r="E7" s="0">
-        <v>0.02478516524199861</v>
+        <v>-0.037689424904769502</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.18007676696946889</v>
+        <v>-0.36964952448847732</v>
       </c>
       <c r="G7" s="0">
-        <v>0.0016642842257800251</v>
+        <v>-0.034647041507883489</v>
       </c>
       <c r="H7" s="0">
-        <v>0.0005169650093366754</v>
+        <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>-0.010265928334348244</v>
+        <v>0</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>-0.034455783574643351</v>
+        <v>-0.015930865346719558</v>
       </c>
     </row>
     <row r="8">
